--- a/biology/Zoologie/Colombar_à_front_nu/Colombar_à_front_nu.xlsx
+++ b/biology/Zoologie/Colombar_à_front_nu/Colombar_à_front_nu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombar_%C3%A0_front_nu</t>
+          <t>Colombar_à_front_nu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Treron calvus
 Le Colombar à front nu (Treron calvus), également appelé pigeon vert à front nu, est une espèce d'oiseaux de la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombar_%C3%A0_front_nu</t>
+          <t>Colombar_à_front_nu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 23 à 30 cm de longueur pour une masse de 160 à 285 g pour le mâle et 130 à 225 g pour la femelle.
 Le plumage présente une dominante verte teintée de jaune sur la tête et les parties inférieures. Le cou et le haut du manteau sont gris. Les rémiges primaires et les secondaires externes sont noires. La bordure des grandes couvertures est jaune, constituant ainsi une bande bien visible lorsque l'aile est repliée. La courbure des ailes est marquée par une tache lilas. Les flancs sont rayés de jaune et de vert. Les sous-caudales sont vert foncé à extrémité blanche pour les plus petites et châtain à extrémité plus claire pour les autres. Les rectrices médianes sont gris bleu. Les iris sont bleu pâle avec des cercles oculaires bruns. Le bec est gris avec l'extrémité plus pâle et la base rouge arborant une grande cire jusqu'à l'arrière des narines. Les pattes sont jaunes ou rosâtres.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombar_%C3%A0_front_nu</t>
+          <t>Colombar_à_front_nu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans toute l'Afrique subsaharienne (rare en Afrique australe et dans la corne de l'Afrique).
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colombar_%C3%A0_front_nu</t>
+          <t>Colombar_à_front_nu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente régions boisées (notamment des genres ficus, brachystegia, combretum), savanes, jardins etc.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colombar_%C3%A0_front_nu</t>
+          <t>Colombar_à_front_nu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Alan P. Peterson, il en existe quinze sous-espèces qui se distinguent essentiellement par la taille de la cire, la couleur de la tête, des parties inférieures, de la queue et des pattes :
 Treron calvus ansorgei Hartert &amp; Goodson 1918 du sud de l'Angola avec une cire peu développée, le haut du manteau plus bleuâtre et les pattes rouges ;
